--- a/DataWarehouse/tunisian_data/excel/Promotion.xlsx
+++ b/DataWarehouse/tunisian_data/excel/Promotion.xlsx
@@ -480,19 +480,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>L'avantage d'innover à l'état pur</t>
+          <t>L'art d'évoluer à sa source</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Réduction</t>
+          <t>Montant Fixe</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45613</v>
+        <v>45559</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45645</v>
+        <v>45606</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Le droit d'innover à l'état pur</t>
+          <t>L'art de concrétiser vos projets plus facilement</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Produit Offert</t>
+          <t>Réduction</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45378</v>
+        <v>45358</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45542</v>
+        <v>45545</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +532,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>L'avantage d'atteindre vos buts plus rapidement</t>
+          <t>L'avantage de changer de manière efficace</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,10 +541,10 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45374</v>
+        <v>45518</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45426</v>
+        <v>45551</v>
       </c>
     </row>
     <row r="5">
@@ -558,19 +558,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Le droit d'avancer avant-tout</t>
+          <t>L'art de concrétiser vos projets autrement</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Montant Fixe</t>
+          <t>Produit Offert</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45398</v>
+        <v>45307</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45442</v>
+        <v>45481</v>
       </c>
     </row>
     <row r="6">
@@ -584,19 +584,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>La possibilité de louer avant-tout</t>
+          <t>Le pouvoir d'évoluer de manière efficace</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Produit Offert</t>
+          <t>Montant Fixe</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45285</v>
+        <v>45539</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45507</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="7">
@@ -610,7 +610,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>La possibilité de rouler naturellement</t>
+          <t>Le pouvoir d'évoluer autrement</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45447</v>
+        <v>45410</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45562</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="8">
@@ -636,7 +636,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>L'art de changer de manière efficace</t>
+          <t>L'art d'avancer de manière sûre</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45550</v>
+        <v>45364</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45591</v>
+        <v>45400</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Le pouvoir d'innover sans soucis</t>
+          <t>Le plaisir d'avancer en toute tranquilité</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45621</v>
+        <v>45288</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45625</v>
+        <v>45552</v>
       </c>
     </row>
     <row r="10">
@@ -688,19 +688,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Le plaisir de concrétiser vos projets naturellement</t>
+          <t>La liberté de concrétiser vos projets en toute tranquilité</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Produit Offert</t>
+          <t>Réduction</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45598</v>
+        <v>45618</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45620</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="11">
@@ -714,19 +714,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Le plaisir d'innover à la pointe</t>
+          <t>La liberté d'innover à sa source</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Produit Offert</t>
+          <t>Réduction</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45536</v>
+        <v>45473</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45598</v>
+        <v>45525</v>
       </c>
     </row>
   </sheetData>
